--- a/document/【実習】各種設計書/基本設計/テーブル定義書.xlsx
+++ b/document/【実習】各種設計書/基本設計/テーブル定義書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_ProgrammingPractice\document\【実習】各種設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607060D4-5A08-4577-BF8B-109ABE9E0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EBB832-6AF5-4F55-AD2F-C3F33B3EE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="12" windowWidth="16044" windowHeight="13248" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="166" r:id="rId1"/>
     <sheet name="取引先マスタ" sheetId="164" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">取引先マスタ!$A$1:$P$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
     <definedName name="範囲１">#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>説明／備考</t>
   </si>
@@ -128,46 +129,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>取引先ID</t>
-    <rPh sb="0" eb="2">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>client_id</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>一意な得意先のID
-コードから割り当て</t>
-    <rPh sb="0" eb="2">
-      <t>イチイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>トクイサキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -191,10 +157,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>m_customer</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>桁数(小数)</t>
   </si>
   <si>
@@ -338,6 +300,259 @@
   </si>
   <si>
     <t>ユーザー情報を管理するマスタテーブル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ID　　　　　　　</t>
+  </si>
+  <si>
+    <t>名前（姓）　　　</t>
+  </si>
+  <si>
+    <t>名前（名）　　　</t>
+  </si>
+  <si>
+    <t>カナ（姓）　　　</t>
+  </si>
+  <si>
+    <t>カナ（名）　　　</t>
+  </si>
+  <si>
+    <t>メールアドレス　</t>
+  </si>
+  <si>
+    <t>パスワード　　　</t>
+  </si>
+  <si>
+    <t>性別　　　　　　</t>
+  </si>
+  <si>
+    <t>郵便番号　　　　</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>住所（番地）　　</t>
+  </si>
+  <si>
+    <t>アカウント権限　</t>
+  </si>
+  <si>
+    <t>削除フラグ　　　</t>
+  </si>
+  <si>
+    <t>登録日時　　　　</t>
+  </si>
+  <si>
+    <t>更新日時　　　　</t>
+  </si>
+  <si>
+    <t>自動採番</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>family_name_kana</t>
+  </si>
+  <si>
+    <t>last_name_kana</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>prefecture</t>
+  </si>
+  <si>
+    <t>address_1</t>
+  </si>
+  <si>
+    <t>address_2</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>delete_flag</t>
+  </si>
+  <si>
+    <t>registered_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>current_timestamp()</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> login_user_transaction</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの姓</t>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの名前</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの姓のフリガナ</t>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの名前のフリガナ</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーのメールアドレス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーのパスワード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの姓別</t>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの郵便番号</t>
+    <rPh sb="5" eb="9">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの住所（都道府県のみ）</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの市区町村</t>
+    <rPh sb="5" eb="7">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウソン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの番地</t>
+    <rPh sb="5" eb="7">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーのアカウント権限</t>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アカウントの削除フラグ</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの登録日時</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザー情報の最終更新日時</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -495,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -792,32 +1007,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -863,6 +1052,15 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -876,7 +1074,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1003,9 +1201,9 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1023,6 +1221,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1038,6 +1254,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,9 +1269,6 @@
     <xf numFmtId="14" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,7 +1291,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1113,26 +1338,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2047,25 +2266,25 @@
     <row r="8" spans="1:176" ht="13.05" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
+      <c r="F8" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
@@ -2084,26 +2303,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="75"/>
+      <c r="B9" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="81"/>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
@@ -2122,22 +2341,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="84"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
@@ -2352,18 +2571,18 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
+      <c r="L17" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
       <c r="AA17" s="43"/>
@@ -2385,16 +2604,16 @@
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="AA18" s="43"/>
@@ -2416,16 +2635,16 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
       <c r="X19" s="43"/>
@@ -2540,7 +2759,7 @@
     <row r="23" spans="1:32" ht="13.05" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -2608,19 +2827,19 @@
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
       <c r="I25" s="55"/>
       <c r="J25" s="53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K25" s="54"/>
       <c r="L25" s="54"/>
@@ -2641,10 +2860,10 @@
       <c r="AA25" s="54"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AD25" s="55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE25" s="43"/>
       <c r="AF25" s="48"/>
@@ -2652,19 +2871,19 @@
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="79">
+      <c r="F26" s="87">
         <v>45641</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="89"/>
       <c r="J26" s="53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
@@ -2685,7 +2904,7 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD26" s="55"/>
       <c r="AE26" s="43"/>
@@ -3290,10 +3509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3316,57 +3535,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86" t="s">
+      <c r="D1" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+        <v>39</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M2" s="35">
         <v>45644</v>
@@ -3374,48 +3593,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="89"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="109"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3438,11 +3657,11 @@
         <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>4</v>
@@ -3451,15 +3670,15 @@
         <v>15</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="105"/>
+      <c r="M6" s="114"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3475,35 +3694,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="26">
-        <v>8</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="107"/>
+      <c r="K7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="116"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -3512,18 +3727,30 @@
       <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="26">
+        <v>10</v>
+      </c>
       <c r="F8" s="27"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
+      <c r="K8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="102"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -3532,18 +3759,30 @@
       <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="26">
+        <v>10</v>
+      </c>
       <c r="F9" s="27"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
+      <c r="K9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="102"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
@@ -3552,18 +3791,30 @@
       <c r="A10" s="32">
         <v>4</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="26">
+        <v>10</v>
+      </c>
       <c r="F10" s="27"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
+      <c r="K10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="102"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -3572,18 +3823,30 @@
       <c r="A11" s="32">
         <v>5</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="26">
+        <v>10</v>
+      </c>
       <c r="F11" s="27"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="93"/>
+      <c r="K11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="102"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -3592,18 +3855,30 @@
       <c r="A12" s="32">
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="26">
+        <v>100</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93"/>
+      <c r="K12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="102"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -3612,18 +3887,30 @@
       <c r="A13" s="32">
         <v>7</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="26">
+        <v>10</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
+      <c r="K13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="102"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -3632,18 +3919,30 @@
       <c r="A14" s="32">
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
+      <c r="K14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="102"/>
       <c r="N14" s="28"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -3652,18 +3951,30 @@
       <c r="A15" s="32">
         <v>9</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="26">
+        <v>7</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="93"/>
+      <c r="K15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="102"/>
       <c r="N15" s="28"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -3672,18 +3983,30 @@
       <c r="A16" s="32">
         <v>10</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="93"/>
+      <c r="K16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="102"/>
       <c r="N16" s="28"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -3692,18 +4015,30 @@
       <c r="A17" s="32">
         <v>11</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="26">
+        <v>10</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="93"/>
+      <c r="K17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="102"/>
       <c r="N17" s="28"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -3712,18 +4047,30 @@
       <c r="A18" s="32">
         <v>12</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="26">
+        <v>100</v>
+      </c>
       <c r="F18" s="27"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
+      <c r="K18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="102"/>
       <c r="N18" s="28"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -3732,18 +4079,30 @@
       <c r="A19" s="32">
         <v>13</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
       <c r="F19" s="27"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
+      <c r="K19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="102"/>
       <c r="N19" s="28"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -3752,18 +4111,30 @@
       <c r="A20" s="32">
         <v>14</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="26">
+        <v>1</v>
+      </c>
       <c r="F20" s="27"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93"/>
+      <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="102"/>
       <c r="N20" s="28"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
@@ -3772,42 +4143,105 @@
       <c r="A21" s="32">
         <v>15</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="93"/>
+      <c r="K21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="102"/>
       <c r="N21" s="28"/>
       <c r="O21" s="24"/>
       <c r="P21" s="29"/>
     </row>
+    <row r="22" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A22" s="32">
+        <v>16</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="102"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+    </row>
+    <row r="24" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A24" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
